--- a/US/data/BTS/TRPT/Cargo Revenue Ton-Miles.xlsx
+++ b/US/data/BTS/TRPT/Cargo Revenue Ton-Miles.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1614.284</t>
+          <t>1614.292</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>6474.410</t>
+          <t>6474.418</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18745.922</t>
+          <t>18745.930</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>76596.323</t>
+          <t>76596.331</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
@@ -10704,32 +10704,32 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1606.753</t>
+          <t>1605.293</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>587.746</t>
+          <t>565.108</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>137.915</t>
+          <t>123.032</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>923.327</t>
+          <t>947.415</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3628.861</t>
+          <t>3628.893</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>6884.602</t>
+          <t>6869.741</t>
         </is>
       </c>
       <c r="I260" t="inlineStr"/>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1329.102</t>
+          <t>1328.993</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3391.886</t>
+          <t>3391.955</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>6192.828</t>
+          <t>6192.787</t>
         </is>
       </c>
       <c r="I261" t="inlineStr"/>
@@ -10802,12 +10802,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>3846.970</t>
+          <t>3850.862</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>7483.288</t>
+          <t>7487.179</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4036.392</t>
+          <t>4037.925</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>7575.590</t>
+          <t>7577.122</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
@@ -10880,12 +10880,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4138.903</t>
+          <t>4145.403</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>7646.551</t>
+          <t>7653.051</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -10919,12 +10919,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>4051.162</t>
+          <t>4052.335</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>7510.142</t>
+          <t>7511.315</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -10958,12 +10958,12 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>4121.191</t>
+          <t>4126.835</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>7587.302</t>
+          <t>7592.947</t>
         </is>
       </c>
       <c r="I266" t="inlineStr"/>
@@ -10997,12 +10997,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>4215.407</t>
+          <t>4221.008</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>7570.123</t>
+          <t>7575.724</t>
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
@@ -11036,12 +11036,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>4114.244</t>
+          <t>4123.774</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>7482.682</t>
+          <t>7492.212</t>
         </is>
       </c>
       <c r="I268" t="inlineStr"/>
@@ -11075,12 +11075,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>4432.605</t>
+          <t>4444.334</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>8022.949</t>
+          <t>8034.677</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
@@ -11114,12 +11114,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>4278.257</t>
+          <t>4291.118</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>7769.053</t>
+          <t>7781.914</t>
         </is>
       </c>
       <c r="I270" t="inlineStr"/>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1958.740</t>
+          <t>1960.397</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -11153,12 +11153,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>4283.520</t>
+          <t>4395.379</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>8032.716</t>
+          <t>8146.232</t>
         </is>
       </c>
       <c r="I271" t="inlineStr"/>
@@ -11176,32 +11176,32 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>20150.444</t>
+          <t>20150.531</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>7970.652</t>
+          <t>7948.014</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>1704.960</t>
+          <t>1690.077</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>11392.371</t>
+          <t>11416.459</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>48539.400</t>
+          <t>48709.820</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>89757.826</t>
+          <t>89914.902</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
@@ -11224,232 +11224,439 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>20.24%</t>
+          <t>19.90%</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>36.20%</t>
+          <t>35.01%</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>22.96%</t>
+          <t>23.40%</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>17.18%</t>
+          <t>17.39%</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="inlineStr"/>
-      <c r="B274" s="1" t="inlineStr"/>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B274" s="1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1589.905</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>608.077</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>133.117</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>833.347</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>3772.097</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>6936.543</t>
+        </is>
+      </c>
       <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="inlineStr">
-        <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
-        </is>
-      </c>
+      <c r="A275" s="1" t="n"/>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>February</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>1459.101</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>669.890</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>140.071</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>713.404</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+          <t>3544.386</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
-        </is>
-      </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
-        </is>
-      </c>
+          <t>6526.852</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
-        </is>
-      </c>
+      <c r="A276" s="1" t="n"/>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>March</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>1751.496</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>796.653</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>150.671</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>909.778</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+          <t>4173.877</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
-        </is>
-      </c>
+          <t>7782.474</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>2022 YTD</t>
         </is>
       </c>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>2022 YTD</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>4800.502</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>2074.621</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>423.858</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>2456.529</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+          <t>11490.360</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
-        </is>
-      </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
-        </is>
-      </c>
+          <t>21245.869</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
+          <t>%Chg over 2021 YTD</t>
+        </is>
+      </c>
+      <c r="B278" s="1" t="inlineStr">
+        <is>
+          <t>%Chg over 2021 YTD</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>14.37%</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>5.91%</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-12.47%</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>5.69%</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr"/>
+      <c r="B279" s="1" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="B280" s="1" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>* A cargo revenue ton-mile is one ton of revenue cargo (freight or mail) carried for one mile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="B281" s="1" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>** A revenue ton enplaned is one ton of revenue cargo (freight or mail) loaded on an aircraft for one flight identified by the flight number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>*** International traffic reported by carriers that do not have Atlantic, Pacific, or Latin America entities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="B278" s="1" t="inlineStr">
+      <c r="B283" s="1" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
+      <c r="E283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
+      <c r="F283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr">
+      <c r="I283" t="inlineStr">
         <is>
           <t>SOURCE: Bureau of Transportation Statistics T100 Segment data</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A8:A19"/>
@@ -11471,6 +11678,7 @@
     <mergeCell ref="A232:A243"/>
     <mergeCell ref="A246:A257"/>
     <mergeCell ref="A260:A271"/>
+    <mergeCell ref="A274:A276"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
